--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>bf4e9e98-b722-468d-a608-ea61201bbcc2</t>
+    <t>5d502997-2b61-4dd3-a49d-f7da42c1aa7b</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>5d502997-2b61-4dd3-a49d-f7da42c1aa7b</t>
+    <t>1b61bb8d-f2a6-4812-a2c3-a1fa6ffe561a</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>1b61bb8d-f2a6-4812-a2c3-a1fa6ffe561a</t>
+    <t>f4531015-58e4-4fdf-b5d3-24e49faf7c38</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>f4531015-58e4-4fdf-b5d3-24e49faf7c38</t>
+    <t>782fde19-1552-4839-8b88-f029182b2e71</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>782fde19-1552-4839-8b88-f029182b2e71</t>
+    <t>db300b54-ca94-4fc6-a772-bc40f714fb24</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/backend/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>db300b54-ca94-4fc6-a772-bc40f714fb24</t>
+    <t>7624f59e-d75b-4c67-bc10-2de01eb7ae43</t>
   </si>
   <si>
     <t>AGUIAR</t>
